--- a/correlation matrices/Selection Comments.xlsx
+++ b/correlation matrices/Selection Comments.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwoel\Dropbox\FCR_TimeSeries\FCR\correlation matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8787CD-FE50-43E3-A50A-31F3ED668961}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27448007-C0C9-4E98-9AB7-AFFEEB10F2C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{0B826898-8AE2-4335-9172-ACFFF71C547D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" activeTab="5" xr2:uid="{0B826898-8AE2-4335-9172-ACFFF71C547D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2013-2016" sheetId="1" r:id="rId1"/>
+    <sheet name="2013-2016 0.1m" sheetId="1" r:id="rId1"/>
+    <sheet name="2013 1.0m" sheetId="2" r:id="rId2"/>
+    <sheet name="2014 1.0m" sheetId="3" r:id="rId3"/>
+    <sheet name="2015 1.0m" sheetId="4" r:id="rId4"/>
+    <sheet name="2016 1.0m" sheetId="5" r:id="rId5"/>
+    <sheet name="2013-2016 1.0m" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="121">
   <si>
     <t>Removed from candidates?</t>
   </si>
@@ -53,9 +58,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>correalted with temp_inf_min and also has no significant relationship with chla</t>
-  </si>
-  <si>
     <t>DO_mgL</t>
   </si>
   <si>
@@ -270,6 +272,132 @@
   </si>
   <si>
     <t>ShortWave_mean</t>
+  </si>
+  <si>
+    <t>correalted with temp_inf_min and also sjows no significant relationship with chla</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Why</t>
+  </si>
+  <si>
+    <t>removed from model selection</t>
+  </si>
+  <si>
+    <t>high correlation with chla driven by 1 data point</t>
+  </si>
+  <si>
+    <t>highly correlated with TP_load_log which has a better relationship with chla</t>
+  </si>
+  <si>
+    <t>highly correlated with ShortWave Mean which has better relationship with chla</t>
+  </si>
+  <si>
+    <t>highyl correlated with Temp_inf_mean which has slightly better statistics</t>
+  </si>
+  <si>
+    <t>highly correlated with rehum_max_log but statistics are essentially equal, chose max</t>
+  </si>
+  <si>
+    <t>highly correlated with NO3NO2_log which has better statistics with chla</t>
+  </si>
+  <si>
+    <t>highly correlated with WindSpeed_mean_log which has slightly better relationship with chla</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>correlation with other flow variables, flow_min was selected</t>
+  </si>
+  <si>
+    <t>correlation with shortwave max</t>
+  </si>
+  <si>
+    <t>correlation with other Temp variables, Temp inf max selected</t>
+  </si>
+  <si>
+    <t>correlation with other wind speed variables, windspeed median selected</t>
+  </si>
+  <si>
+    <t>correlated with other nitrogen variables, TN selected</t>
+  </si>
+  <si>
+    <t>correlated with NH4 at inf, NH4 at inf selected</t>
+  </si>
+  <si>
+    <t>correlated with other inflow variables, NH4 load was selected</t>
+  </si>
+  <si>
+    <t>correlated with other humidity and rain variables, rain was selected</t>
+  </si>
+  <si>
+    <t>correlated with nutrient variables, SRP inf selected</t>
+  </si>
+  <si>
+    <t>correlated with turbidity, which has slightly better statistics</t>
+  </si>
+  <si>
+    <t>correlated with shortwave max which has slightly better statistics</t>
+  </si>
+  <si>
+    <t>correlated with other wind speed variables, windspeed mean was selected</t>
+  </si>
+  <si>
+    <t>correlated with other temp variables, temp inf min chosen</t>
+  </si>
+  <si>
+    <t>correlated with NH4_load</t>
+  </si>
+  <si>
+    <t>correlated with Rel Humidity max</t>
+  </si>
+  <si>
+    <t>correlated with WindSpeed Median</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>correlated with SRP inf</t>
+  </si>
+  <si>
+    <t>correlated with Sp Conductivity</t>
+  </si>
+  <si>
+    <t>correlated with TP inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected </t>
+  </si>
+  <si>
+    <t>correlated with Short Wave mean</t>
+  </si>
+  <si>
+    <t>correlated with Rel Humidity median</t>
+  </si>
+  <si>
+    <t>correlated with Temp inf max</t>
+  </si>
+  <si>
+    <t>correlated with Windspeed median</t>
+  </si>
+  <si>
+    <t>NOTE: a lot of variables do not have data for the entire dataset so they are removed here</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
@@ -320,7 +448,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -653,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FCFF04-F8DB-4D93-BBA3-BAFBA68DBAB5}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,66 +899,1049 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A55">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+      <formula>-0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60EE33F-7D97-42F5-9BC4-DB77467ABA9A}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A41">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>-0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBC7C23-6A16-44D1-9F06-75026C2D6BF1}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -758,448 +1949,1145 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>56</v>
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A43">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>-0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530AFB05-FB49-4448-8423-BAA49CD35061}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A42">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>-0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A789A10-9F3B-4C53-959E-2E9DAAB6F4E3}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>69</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>77</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>78</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A55">
+  <conditionalFormatting sqref="A1:A42">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-0.5</formula>
     </cfRule>
@@ -1209,4 +3097,467 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC05618-5674-4146-B799-874F4E94827A}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>